--- a/src/test/java/IdentityServer_API_Admin/Data/IdentityServer_API_Admin.xlsx
+++ b/src/test/java/IdentityServer_API_Admin/Data/IdentityServer_API_Admin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajmal.syed.LOGICIELSERVICE\eclipse-workspace\OMS_API\src\test\java\IdentityServer_API_Admin\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APIAutomation\Automation_OMSAPI\src\test\java\IdentityServer_API_Admin\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DB1B19-E273-468B-9BC8-F89903E89F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5234048E-740E-46DE-90E4-EE0E767E769B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="276" firstSheet="4" activeTab="5" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="276" firstSheet="2" activeTab="3" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
   </bookViews>
   <sheets>
     <sheet name="AdminLogin" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="124">
   <si>
     <t>/connect/token</t>
   </si>
@@ -293,30 +293,6 @@
   </si>
   <si>
     <t>Account_Register_TC0001</t>
-  </si>
-  <si>
-    <t>Update_Status_TC0001</t>
-  </si>
-  <si>
-    <t>Update_Status_TC0002</t>
-  </si>
-  <si>
-    <t>Update_Info_TC0001</t>
-  </si>
-  <si>
-    <t>Update_Info_TC0002</t>
-  </si>
-  <si>
-    <t>User_Register_TC0001</t>
-  </si>
-  <si>
-    <t>User_Register_TC0002</t>
-  </si>
-  <si>
-    <t>User_Register_TC0003</t>
-  </si>
-  <si>
-    <t>User_Register_TC0004</t>
   </si>
   <si>
     <t>[
@@ -331,30 +307,6 @@
     <t>["AddPosition","IsFractionalOrdersAllowed","DeletePosition","IsFirmPositionAllowed","UpdatePosition"]</t>
   </si>
   <si>
-    <t>User_Register_TC0005</t>
-  </si>
-  <si>
-    <t>User_Register_TC0006</t>
-  </si>
-  <si>
-    <t>User_Register_TC0007</t>
-  </si>
-  <si>
-    <t>User_Register_TC0008</t>
-  </si>
-  <si>
-    <t>User_Register_TC0009</t>
-  </si>
-  <si>
-    <t>User_Register_TC0010</t>
-  </si>
-  <si>
-    <t>User_Register_TC0011</t>
-  </si>
-  <si>
-    <t>User_Register_TC0012</t>
-  </si>
-  <si>
     <t>x-www-form-urlencoded</t>
   </si>
   <si>
@@ -392,22 +344,6 @@
   </si>
   <si>
     <t>first003</t>
-  </si>
-  <si>
-    <t>{
-    "Enabled": false,
-    "ClientId": "LSL",
-    "Email": "first004@mailinator.com", 
-    "Username": ""
-}</t>
-  </si>
-  <si>
-    <t>{
-    "Enabled": true,
-    "ClientId": "LSL",
-    "Email": "", 
-    "Username": "first004"
-}</t>
   </si>
   <si>
     <t>{
@@ -448,6 +384,113 @@
   </si>
   <si>
     <t>Data Updated in identity server! but not in VtraderDb Exception in VtraderDB: skipped</t>
+  </si>
+  <si>
+    <t>User_Register_TestCase_VTRAD-C541</t>
+  </si>
+  <si>
+    <t>User_Register_TestCase_VTRAD-C539</t>
+  </si>
+  <si>
+    <t>User_Register_TestCase_VTRAD-C538</t>
+  </si>
+  <si>
+    <t>user name last</t>
+  </si>
+  <si>
+    <t>User_Register_TestCase_VTRAD-C527</t>
+  </si>
+  <si>
+    <t>User_Register_TestCase_VTRAD-C526</t>
+  </si>
+  <si>
+    <t>[
+        {"name": "10005", "value": "10005", "booth":"LSL"},
+        { "name": "10004","value": "10004","booth": "LSL"}        ]</t>
+  </si>
+  <si>
+    <t>User_Register_TestCase_VTRAD-C525</t>
+  </si>
+  <si>
+    <t>User_Register_TestCase_VTRAD-C524</t>
+  </si>
+  <si>
+    <t>User_Register_TestCase_VTRAD-C519</t>
+  </si>
+  <si>
+    <t>User_Register_TestCase_VTRAD-C518</t>
+  </si>
+  <si>
+    <t>Update_Info_TestCase_VTRAD-C161</t>
+  </si>
+  <si>
+    <t>Update_Info_TestCase_VTRAD-C161-B</t>
+  </si>
+  <si>
+    <t>Update_Status_TestCase_VTRAD-C407</t>
+  </si>
+  <si>
+    <t>Update_Status_TestCase_VTRAD-C406</t>
+  </si>
+  <si>
+    <t>{
+    "Enabled": true,
+    "ClientId": "LSL",
+    "Email": "first004@mailinator.com", 
+    "Username": "invalid"
+}</t>
+  </si>
+  <si>
+    <t>Update_Status_TestCase_VTRAD-C405</t>
+  </si>
+  <si>
+    <t>{
+    "Enabled": false,
+    "ClientId": "LSL",
+    "Email": "first004@mailinator.com", 
+    "Username": "null"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "Enabled": true,
+    "ClientId": "LSL",
+    "Email": "first004@mailinator.com", 
+    "Username": "null"
+}</t>
+  </si>
+  <si>
+    <t>Update_Status_TestCase_VTRAD-C404</t>
+  </si>
+  <si>
+    <t>{
+    "Enabled": true,
+    "ClientId": "LSL",
+    "Email": "null", 
+    "Username": "first004"
+}</t>
+  </si>
+  <si>
+    <t>Update_Status_TestCase_VTRAD-C403</t>
+  </si>
+  <si>
+    <t>{
+    "Enabled": false,
+    "ClientId": "LSL",
+    "Email": "null", 
+    "Username": "first004"
+}</t>
+  </si>
+  <si>
+    <t>Update_Status_TestCase_VTRAD-C399</t>
+  </si>
+  <si>
+    <t>{
+    "Enabled": false,
+    "ClientId": "LSL",
+    "Email": "first004@mailinator.com", 
+    "Username": "invalid"
+}</t>
   </si>
 </sst>
 </file>
@@ -541,7 +584,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -551,7 +594,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -568,22 +610,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -603,9 +643,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -643,7 +683,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -749,7 +789,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -891,7 +931,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -917,7 +957,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="14" t="s">
         <v>75</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -947,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>3</v>
@@ -972,21 +1012,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DB709A-4406-44D1-BA91-D434588F7DDC}">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" customWidth="1"/>
     <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" customWidth="1"/>
     <col min="4" max="6" width="44.140625" customWidth="1"/>
     <col min="7" max="7" width="44.140625" style="3" customWidth="1"/>
     <col min="8" max="11" width="44.140625" customWidth="1"/>
-    <col min="12" max="12" width="203.85546875" customWidth="1"/>
+    <col min="12" max="12" width="218.28515625" customWidth="1"/>
     <col min="13" max="13" width="97.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="32.7109375" customWidth="1"/>
     <col min="15" max="16" width="44.140625" customWidth="1"/>
@@ -997,7 +1037,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1051,16 +1091,16 @@
       <c r="R1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="T1" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>14</v>
@@ -1068,40 +1108,40 @@
       <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>69</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>20</v>
       </c>
       <c r="P2" s="6" t="s">
@@ -1113,16 +1153,16 @@
       <c r="R2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="8">
+      <c r="S2" s="7">
         <v>200</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>14</v>
@@ -1130,38 +1170,36 @@
       <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>69</v>
-      </c>
+      <c r="D3" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
       <c r="G3" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="8" t="s">
         <v>20</v>
       </c>
       <c r="P3" s="6" t="s">
@@ -1173,16 +1211,16 @@
       <c r="R3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="8">
+      <c r="S3" s="7">
         <v>200</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>14</v>
@@ -1190,38 +1228,36 @@
       <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9" t="s">
-        <v>69</v>
-      </c>
+      <c r="D4" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
       <c r="G4" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="8" t="s">
         <v>20</v>
       </c>
       <c r="P4" s="6" t="s">
@@ -1233,16 +1269,16 @@
       <c r="R4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S4" s="8">
+      <c r="S4" s="7">
         <v>200</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="T4" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>14</v>
@@ -1250,38 +1286,38 @@
       <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="8"/>
       <c r="G5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="8" t="s">
         <v>20</v>
       </c>
       <c r="P5" s="6" t="s">
@@ -1293,16 +1329,16 @@
       <c r="R5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S5" s="8">
+      <c r="S5" s="7">
         <v>200</v>
       </c>
-      <c r="T5" s="8" t="s">
+      <c r="T5" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>14</v>
@@ -1310,40 +1346,40 @@
       <c r="C6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>69</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="8" t="s">
         <v>73</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="N6" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="N6" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="8" t="s">
         <v>20</v>
       </c>
       <c r="P6" s="6" t="s">
@@ -1355,16 +1391,16 @@
       <c r="R6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S6" s="8">
+      <c r="S6" s="7">
         <v>200</v>
       </c>
-      <c r="T6" s="8" t="s">
+      <c r="T6" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>14</v>
@@ -1372,40 +1408,40 @@
       <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>69</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="8" t="s">
         <v>73</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="N7" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="N7" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="8" t="s">
         <v>20</v>
       </c>
       <c r="P7" s="6" t="s">
@@ -1417,16 +1453,16 @@
       <c r="R7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="8">
+      <c r="S7" s="7">
         <v>200</v>
       </c>
-      <c r="T7" s="8" t="s">
+      <c r="T7" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>14</v>
@@ -1434,40 +1470,40 @@
       <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>69</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="8" t="s">
         <v>73</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="N8" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="N8" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="8" t="s">
         <v>20</v>
       </c>
       <c r="P8" s="6" t="s">
@@ -1479,16 +1515,16 @@
       <c r="R8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S8" s="8">
+      <c r="S8" s="7">
         <v>200</v>
       </c>
-      <c r="T8" s="8" t="s">
+      <c r="T8" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>14</v>
@@ -1496,40 +1532,36 @@
       <c r="C9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>69</v>
-      </c>
+      <c r="D9" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
       <c r="G9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="L9" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="N9" s="9" t="s">
+      <c r="L9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="N9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O9" s="8" t="s">
         <v>20</v>
       </c>
       <c r="P9" s="6" t="s">
@@ -1541,16 +1573,16 @@
       <c r="R9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S9" s="8">
+      <c r="S9" s="7">
         <v>200</v>
       </c>
-      <c r="T9" s="8" t="s">
+      <c r="T9" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>14</v>
@@ -1558,40 +1590,40 @@
       <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>69</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="8" t="s">
         <v>73</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="N10" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="N10" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="O10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="P10" s="6" t="s">
@@ -1603,196 +1635,10 @@
       <c r="R10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S10" s="8">
+      <c r="S10" s="7">
         <v>200</v>
       </c>
-      <c r="T10" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="S11" s="8">
-        <v>200</v>
-      </c>
-      <c r="T11" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="S12" s="8">
-        <v>200</v>
-      </c>
-      <c r="T12" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="S13" s="8">
-        <v>200</v>
-      </c>
-      <c r="T13" s="8" t="s">
+      <c r="T10" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1807,8 +1653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AEBD543-6663-42F5-BE82-FAE7A430EC16}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1817,7 +1663,7 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="53.85546875" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" customWidth="1"/>
+    <col min="5" max="5" width="53.5703125" customWidth="1"/>
     <col min="6" max="6" width="92.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="26.140625" customWidth="1"/>
     <col min="9" max="9" width="31.7109375" customWidth="1"/>
@@ -1830,125 +1676,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2" s="15">
+      <c r="D2" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="10">
         <v>200</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I2" s="9" t="s">
+      <c r="H2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="7">
         <v>200</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="M2" s="9" t="s">
+      <c r="K2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="14" t="s">
+    <row r="3" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="G3" s="15">
+      <c r="D3" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="10">
         <v>200</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I3" s="9" t="s">
+      <c r="H3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="7">
         <v>200</v>
       </c>
-      <c r="K3" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="M3" s="9" t="s">
+      <c r="K3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1964,117 +1810,238 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83195A13-DDF2-4EE6-8EAD-CDED9766D47C}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" customWidth="1"/>
-    <col min="6" max="6" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="83.5703125" customWidth="1"/>
-    <col min="9" max="9" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.7109375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="98.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="31.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="83.5703125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="38.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="12" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="19">
         <v>200</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="19">
+        <v>200</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="19">
+        <v>200</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G4" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="H4" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="12" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="5" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3">
+      <c r="D5" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="19">
         <v>200</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F5" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="19">
+        <v>200</v>
+      </c>
+      <c r="F6" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G6" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="H6" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="19">
+        <v>200</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="I7" s="19" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" display="firstname008@mailinator.com" xr:uid="{F3E9F0BA-3D51-4A66-B375-0FA009296D84}"/>
+    <hyperlink ref="H6" r:id="rId1" display="firstname008@mailinator.com" xr:uid="{F3E9F0BA-3D51-4A66-B375-0FA009296D84}"/>
     <hyperlink ref="H2" r:id="rId2" display="firstname008@mailinator.com" xr:uid="{FA0860B7-8C4F-4F20-80B1-BFB52ABB0920}"/>
+    <hyperlink ref="H5" r:id="rId3" display="firstname008@mailinator.com" xr:uid="{1A60BE8D-51AC-490D-951D-5853E40CE74B}"/>
+    <hyperlink ref="H3" r:id="rId4" display="firstname008@mailinator.com" xr:uid="{A8DE701A-222B-43AA-ACF6-AB97512ED5A0}"/>
+    <hyperlink ref="H7" r:id="rId5" display="firstname008@mailinator.com" xr:uid="{A3EEBBC9-F319-4CA0-BDAE-39A2EC78A23B}"/>
+    <hyperlink ref="H4" r:id="rId6" display="firstname008@mailinator.com" xr:uid="{02D6F167-C2E1-4088-82A6-CFBAB4F27555}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2099,7 +2066,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="14" t="s">
         <v>79</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2128,10 +2095,10 @@
       <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E2" s="11">
+      <c r="D2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="10">
         <v>200</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -2147,8 +2114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4157AB-ADFC-43BC-9EF8-AFD9D1DCCC20}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2162,7 +2129,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="14" t="s">
         <v>80</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2191,10 +2158,10 @@
       <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="11">
+      <c r="D2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="10">
         <v>200</v>
       </c>
       <c r="F2" s="6" t="s">
